--- a/pred_ohlcv/54/2019-10-10 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-10 CHR ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="C2" t="n">
-        <v>38.4</v>
+        <v>39.4</v>
       </c>
       <c r="D2" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="E2" t="n">
-        <v>38.4</v>
+        <v>39.4</v>
       </c>
       <c r="F2" t="n">
-        <v>4616.3091</v>
+        <v>56343.65878168</v>
       </c>
       <c r="G2" t="n">
-        <v>35.40333333333331</v>
+        <v>35.30499999999998</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C3" t="n">
         <v>38.4</v>
       </c>
-      <c r="C3" t="n">
-        <v>38.3</v>
-      </c>
       <c r="D3" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E3" t="n">
         <v>38.4</v>
       </c>
-      <c r="E3" t="n">
-        <v>38.3</v>
-      </c>
       <c r="F3" t="n">
-        <v>9332.308199999999</v>
+        <v>4616.3091</v>
       </c>
       <c r="G3" t="n">
-        <v>35.50999999999998</v>
+        <v>35.40333333333331</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.1</v>
+        <v>38.4</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>38.3</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>38.4</v>
       </c>
       <c r="E4" t="n">
-        <v>39.1</v>
+        <v>38.3</v>
       </c>
       <c r="F4" t="n">
-        <v>76599.30708925</v>
+        <v>9332.308199999999</v>
       </c>
       <c r="G4" t="n">
-        <v>35.63499999999998</v>
+        <v>35.50999999999998</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C5" t="n">
         <v>40</v>
-      </c>
-      <c r="C5" t="n">
-        <v>39.9</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>39.9</v>
+        <v>39.1</v>
       </c>
       <c r="F5" t="n">
-        <v>7556.7375</v>
+        <v>76599.30708925</v>
       </c>
       <c r="G5" t="n">
-        <v>35.75833333333332</v>
+        <v>35.63499999999998</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39.6</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>37.9</v>
+        <v>39.9</v>
       </c>
       <c r="D6" t="n">
-        <v>39.6</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>37.9</v>
+        <v>39.9</v>
       </c>
       <c r="F6" t="n">
-        <v>51096.5501</v>
+        <v>7556.7375</v>
       </c>
       <c r="G6" t="n">
-        <v>35.85833333333332</v>
+        <v>35.75833333333332</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.5</v>
+        <v>39.6</v>
       </c>
       <c r="C7" t="n">
-        <v>38.5</v>
+        <v>37.9</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5</v>
+        <v>39.6</v>
       </c>
       <c r="E7" t="n">
-        <v>38.5</v>
+        <v>37.9</v>
       </c>
       <c r="F7" t="n">
-        <v>7164.6753</v>
+        <v>51096.5501</v>
       </c>
       <c r="G7" t="n">
-        <v>35.96833333333332</v>
+        <v>35.85833333333332</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="C8" t="n">
-        <v>40.1</v>
+        <v>38.5</v>
       </c>
       <c r="D8" t="n">
-        <v>40.1</v>
+        <v>38.5</v>
       </c>
       <c r="E8" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="F8" t="n">
-        <v>199758.84459104</v>
+        <v>7164.6753</v>
       </c>
       <c r="G8" t="n">
-        <v>36.10499999999998</v>
+        <v>35.96833333333332</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C9" t="n">
         <v>40.1</v>
       </c>
-      <c r="C9" t="n">
-        <v>40.7</v>
-      </c>
       <c r="D9" t="n">
-        <v>41.4</v>
+        <v>40.1</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>38.4</v>
       </c>
       <c r="F9" t="n">
-        <v>253282.41317447</v>
+        <v>199758.84459104</v>
       </c>
       <c r="G9" t="n">
-        <v>36.25166666666664</v>
+        <v>36.10499999999998</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41.2</v>
+        <v>40.1</v>
       </c>
       <c r="C10" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="D10" t="n">
         <v>41.4</v>
       </c>
       <c r="E10" t="n">
-        <v>41.2</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>107154.43902028</v>
+        <v>253282.41317447</v>
       </c>
       <c r="G10" t="n">
-        <v>36.39833333333331</v>
+        <v>36.25166666666664</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C11" t="n">
         <v>41.3</v>
       </c>
-      <c r="C11" t="n">
-        <v>41.5</v>
-      </c>
       <c r="D11" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="E11" t="n">
-        <v>40.5</v>
+        <v>41.2</v>
       </c>
       <c r="F11" t="n">
-        <v>223980.59732784</v>
+        <v>107154.43902028</v>
       </c>
       <c r="G11" t="n">
-        <v>36.54666666666665</v>
+        <v>36.39833333333331</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,25 +703,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="C12" t="n">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="D12" t="n">
         <v>41.5</v>
       </c>
       <c r="E12" t="n">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="F12" t="n">
-        <v>22690.3373</v>
+        <v>223980.59732784</v>
       </c>
       <c r="G12" t="n">
-        <v>36.68666666666665</v>
+        <v>36.54666666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -697,21 +735,24 @@
         <v>41.4</v>
       </c>
       <c r="C13" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="D13" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="E13" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="F13" t="n">
-        <v>104026.47043497</v>
+        <v>22690.3373</v>
       </c>
       <c r="G13" t="n">
-        <v>36.81999999999998</v>
+        <v>36.68666666666665</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="C14" t="n">
-        <v>41.4</v>
+        <v>40.6</v>
       </c>
       <c r="D14" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="E14" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F14" t="n">
-        <v>232978.00945072</v>
+        <v>104026.47043497</v>
       </c>
       <c r="G14" t="n">
-        <v>36.96666666666665</v>
+        <v>36.81999999999998</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,10 +790,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="C15" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="D15" t="n">
         <v>41.4</v>
@@ -758,12 +802,15 @@
         <v>40.1</v>
       </c>
       <c r="F15" t="n">
-        <v>116682.53923341</v>
+        <v>232978.00945072</v>
       </c>
       <c r="G15" t="n">
-        <v>37.11166666666666</v>
+        <v>36.96666666666665</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>40.4</v>
       </c>
       <c r="C16" t="n">
-        <v>40.1</v>
+        <v>41.3</v>
       </c>
       <c r="D16" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="E16" t="n">
         <v>40.1</v>
       </c>
       <c r="F16" t="n">
-        <v>54431.817</v>
+        <v>116682.53923341</v>
       </c>
       <c r="G16" t="n">
-        <v>37.23666666666666</v>
+        <v>37.11166666666666</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="C17" t="n">
         <v>40.1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>39</v>
       </c>
       <c r="D17" t="n">
         <v>41.3</v>
       </c>
       <c r="E17" t="n">
-        <v>39</v>
+        <v>40.1</v>
       </c>
       <c r="F17" t="n">
-        <v>116342.2227</v>
+        <v>54431.817</v>
       </c>
       <c r="G17" t="n">
-        <v>37.34499999999999</v>
+        <v>37.23666666666666</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C18" t="n">
         <v>39</v>
       </c>
-      <c r="C18" t="n">
-        <v>38.7</v>
-      </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>41.3</v>
       </c>
       <c r="E18" t="n">
-        <v>38.1</v>
+        <v>39</v>
       </c>
       <c r="F18" t="n">
-        <v>525375.0274418</v>
+        <v>116342.2227</v>
       </c>
       <c r="G18" t="n">
-        <v>37.44666666666665</v>
+        <v>37.34499999999999</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>41.5</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>38.7</v>
       </c>
       <c r="D19" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="E19" t="n">
-        <v>38.6</v>
+        <v>38.1</v>
       </c>
       <c r="F19" t="n">
-        <v>188996.6405</v>
+        <v>525375.0274418</v>
       </c>
       <c r="G19" t="n">
-        <v>37.57999999999999</v>
+        <v>37.44666666666665</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>39</v>
+        <v>41.5</v>
       </c>
       <c r="C20" t="n">
-        <v>40.6</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>41.3</v>
+        <v>41.8</v>
       </c>
       <c r="E20" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="F20" t="n">
-        <v>512256.12140764</v>
+        <v>188996.6405</v>
       </c>
       <c r="G20" t="n">
-        <v>37.72333333333332</v>
+        <v>37.57999999999999</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40.5</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>37.8</v>
+        <v>40.6</v>
       </c>
       <c r="D21" t="n">
-        <v>40.6</v>
+        <v>41.3</v>
       </c>
       <c r="E21" t="n">
-        <v>36.4</v>
+        <v>38.3</v>
       </c>
       <c r="F21" t="n">
-        <v>791735.1452</v>
+        <v>512256.12140764</v>
       </c>
       <c r="G21" t="n">
-        <v>37.82166666666665</v>
+        <v>37.72333333333332</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>38</v>
+        <v>40.5</v>
       </c>
       <c r="C22" t="n">
-        <v>39</v>
+        <v>37.8</v>
       </c>
       <c r="D22" t="n">
-        <v>39.1</v>
+        <v>40.6</v>
       </c>
       <c r="E22" t="n">
-        <v>37.4</v>
+        <v>36.4</v>
       </c>
       <c r="F22" t="n">
-        <v>295185.2788</v>
+        <v>791735.1452</v>
       </c>
       <c r="G22" t="n">
-        <v>37.91833333333332</v>
+        <v>37.82166666666665</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="C23" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="D23" t="n">
-        <v>39.7</v>
+        <v>39.1</v>
       </c>
       <c r="E23" t="n">
-        <v>38.5</v>
+        <v>37.4</v>
       </c>
       <c r="F23" t="n">
-        <v>71528.7325</v>
+        <v>295185.2788</v>
       </c>
       <c r="G23" t="n">
-        <v>38.04499999999999</v>
+        <v>37.91833333333332</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>39.2</v>
+        <v>38.5</v>
       </c>
       <c r="C24" t="n">
-        <v>40.1</v>
+        <v>39.7</v>
       </c>
       <c r="D24" t="n">
-        <v>40.4</v>
+        <v>39.7</v>
       </c>
       <c r="E24" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="F24" t="n">
-        <v>230266.54725396</v>
+        <v>71528.7325</v>
       </c>
       <c r="G24" t="n">
-        <v>38.16166666666665</v>
+        <v>38.04499999999999</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>39.2</v>
       </c>
       <c r="C25" t="n">
-        <v>39.7</v>
+        <v>40.1</v>
       </c>
       <c r="D25" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="E25" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="F25" t="n">
-        <v>28635.47787493</v>
+        <v>230266.54725396</v>
       </c>
       <c r="G25" t="n">
-        <v>38.27166666666665</v>
+        <v>38.16166666666665</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>39.6</v>
+        <v>39.2</v>
       </c>
       <c r="C26" t="n">
-        <v>38.3</v>
+        <v>39.7</v>
       </c>
       <c r="D26" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="E26" t="n">
-        <v>38.3</v>
+        <v>39.1</v>
       </c>
       <c r="F26" t="n">
-        <v>237894.2505</v>
+        <v>28635.47787493</v>
       </c>
       <c r="G26" t="n">
-        <v>38.35833333333333</v>
+        <v>38.27166666666665</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>38.2</v>
+        <v>39.6</v>
       </c>
       <c r="C27" t="n">
-        <v>39.9</v>
+        <v>38.3</v>
       </c>
       <c r="D27" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="E27" t="n">
-        <v>37.6</v>
+        <v>38.3</v>
       </c>
       <c r="F27" t="n">
-        <v>458572.42980122</v>
+        <v>237894.2505</v>
       </c>
       <c r="G27" t="n">
-        <v>38.48999999999999</v>
+        <v>38.35833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>39.4</v>
+        <v>38.2</v>
       </c>
       <c r="C28" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="D28" t="n">
-        <v>39.5</v>
+        <v>40.1</v>
       </c>
       <c r="E28" t="n">
-        <v>39.2</v>
+        <v>37.6</v>
       </c>
       <c r="F28" t="n">
-        <v>12074.0652</v>
+        <v>458572.42980122</v>
       </c>
       <c r="G28" t="n">
-        <v>38.59333333333333</v>
+        <v>38.48999999999999</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.1</v>
+        <v>39.4</v>
       </c>
       <c r="C29" t="n">
-        <v>38.3</v>
+        <v>39.2</v>
       </c>
       <c r="D29" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="E29" t="n">
-        <v>38.2</v>
+        <v>39.2</v>
       </c>
       <c r="F29" t="n">
-        <v>247224.86238988</v>
+        <v>12074.0652</v>
       </c>
       <c r="G29" t="n">
-        <v>38.69833333333333</v>
+        <v>38.59333333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="C30" t="n">
-        <v>39.1</v>
+        <v>38.3</v>
       </c>
       <c r="D30" t="n">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="E30" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="F30" t="n">
-        <v>28955.68852634</v>
+        <v>247224.86238988</v>
       </c>
       <c r="G30" t="n">
-        <v>38.77499999999999</v>
+        <v>38.69833333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="C31" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="D31" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="E31" t="n">
-        <v>38.9</v>
+        <v>38.4</v>
       </c>
       <c r="F31" t="n">
-        <v>28363.7017</v>
+        <v>28955.68852634</v>
       </c>
       <c r="G31" t="n">
-        <v>38.83166666666666</v>
+        <v>38.77499999999999</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38.2</v>
+        <v>38.9</v>
       </c>
       <c r="C32" t="n">
-        <v>37.5</v>
+        <v>38.9</v>
       </c>
       <c r="D32" t="n">
-        <v>38.2</v>
+        <v>38.9</v>
       </c>
       <c r="E32" t="n">
-        <v>37.2</v>
+        <v>38.9</v>
       </c>
       <c r="F32" t="n">
-        <v>145274.6708</v>
+        <v>28363.7017</v>
       </c>
       <c r="G32" t="n">
-        <v>38.86499999999999</v>
+        <v>38.83166666666666</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C33" t="n">
         <v>37.5</v>
       </c>
-      <c r="C33" t="n">
-        <v>37.9</v>
-      </c>
       <c r="D33" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="E33" t="n">
-        <v>36.9</v>
+        <v>37.2</v>
       </c>
       <c r="F33" t="n">
-        <v>161725.775</v>
+        <v>145274.6708</v>
       </c>
       <c r="G33" t="n">
-        <v>38.90166666666666</v>
+        <v>38.86499999999999</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>37.5</v>
       </c>
       <c r="C34" t="n">
-        <v>37.1</v>
+        <v>37.9</v>
       </c>
       <c r="D34" t="n">
-        <v>37.5</v>
+        <v>38.3</v>
       </c>
       <c r="E34" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="F34" t="n">
-        <v>54852.0855</v>
+        <v>161725.775</v>
       </c>
       <c r="G34" t="n">
-        <v>38.93666666666666</v>
+        <v>38.90166666666666</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C35" t="n">
         <v>37.1</v>
       </c>
-      <c r="C35" t="n">
-        <v>36.5</v>
-      </c>
       <c r="D35" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E35" t="n">
         <v>37.1</v>
       </c>
-      <c r="E35" t="n">
-        <v>36.4</v>
-      </c>
       <c r="F35" t="n">
-        <v>61357.1426</v>
+        <v>54852.0855</v>
       </c>
       <c r="G35" t="n">
-        <v>38.91</v>
+        <v>38.93666666666666</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>36.6</v>
+        <v>37.1</v>
       </c>
       <c r="C36" t="n">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="D36" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="E36" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F36" t="n">
-        <v>87514.0793</v>
+        <v>61357.1426</v>
       </c>
       <c r="G36" t="n">
-        <v>38.94</v>
+        <v>38.91</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C37" t="n">
         <v>37</v>
       </c>
-      <c r="C37" t="n">
-        <v>36.2</v>
-      </c>
       <c r="D37" t="n">
-        <v>38.2</v>
+        <v>37</v>
       </c>
       <c r="E37" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="F37" t="n">
-        <v>713980.07380338</v>
+        <v>87514.0793</v>
       </c>
       <c r="G37" t="n">
-        <v>38.95333333333333</v>
+        <v>38.94</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>37.4</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>38.4</v>
+        <v>36.2</v>
       </c>
       <c r="D38" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="E38" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="F38" t="n">
-        <v>1766477.39972362</v>
+        <v>713980.07380338</v>
       </c>
       <c r="G38" t="n">
-        <v>39.00333333333333</v>
+        <v>38.95333333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>37.1</v>
+        <v>37.4</v>
       </c>
       <c r="C39" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="D39" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="E39" t="n">
-        <v>36.9</v>
+        <v>35.9</v>
       </c>
       <c r="F39" t="n">
-        <v>612652.7502475301</v>
+        <v>1766477.39972362</v>
       </c>
       <c r="G39" t="n">
-        <v>39.05499999999999</v>
+        <v>39.00333333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>37.5</v>
+        <v>37.1</v>
       </c>
       <c r="C40" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="D40" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="E40" t="n">
-        <v>37.5</v>
+        <v>36.9</v>
       </c>
       <c r="F40" t="n">
-        <v>176918.14913726</v>
+        <v>612652.7502475301</v>
       </c>
       <c r="G40" t="n">
-        <v>39.1</v>
+        <v>39.05499999999999</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>38.2</v>
+        <v>37.5</v>
       </c>
       <c r="C41" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="D41" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="E41" t="n">
-        <v>37.2</v>
+        <v>37.5</v>
       </c>
       <c r="F41" t="n">
-        <v>213850.14906483</v>
+        <v>176918.14913726</v>
       </c>
       <c r="G41" t="n">
-        <v>39.13666666666666</v>
+        <v>39.1</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>37.9</v>
+        <v>38.2</v>
       </c>
       <c r="C42" t="n">
-        <v>37.9</v>
+        <v>38.2</v>
       </c>
       <c r="D42" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="E42" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="F42" t="n">
-        <v>10491.1379</v>
+        <v>213850.14906483</v>
       </c>
       <c r="G42" t="n">
-        <v>39.14333333333333</v>
+        <v>39.13666666666666</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>37.9</v>
       </c>
       <c r="C43" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="D43" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="E43" t="n">
-        <v>37.9</v>
+        <v>37.4</v>
       </c>
       <c r="F43" t="n">
-        <v>81365.1076</v>
+        <v>10491.1379</v>
       </c>
       <c r="G43" t="n">
         <v>39.14333333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="C44" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="D44" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="E44" t="n">
         <v>37.9</v>
       </c>
       <c r="F44" t="n">
-        <v>27479.09925613</v>
+        <v>81365.1076</v>
       </c>
       <c r="G44" t="n">
-        <v>39.145</v>
+        <v>39.14333333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="C45" t="n">
-        <v>37.3</v>
+        <v>38.3</v>
       </c>
       <c r="D45" t="n">
         <v>38.3</v>
       </c>
       <c r="E45" t="n">
-        <v>37.2</v>
+        <v>37.9</v>
       </c>
       <c r="F45" t="n">
-        <v>293367.86080587</v>
+        <v>27479.09925613</v>
       </c>
       <c r="G45" t="n">
-        <v>39.11000000000001</v>
+        <v>39.145</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="C46" t="n">
-        <v>38.4</v>
+        <v>37.3</v>
       </c>
       <c r="D46" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="E46" t="n">
-        <v>38</v>
+        <v>37.2</v>
       </c>
       <c r="F46" t="n">
-        <v>82962.17905727999</v>
+        <v>293367.86080587</v>
       </c>
       <c r="G46" t="n">
-        <v>39.09333333333334</v>
+        <v>39.11000000000001</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>37.3</v>
+        <v>38</v>
       </c>
       <c r="C47" t="n">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="D47" t="n">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="E47" t="n">
-        <v>37.3</v>
+        <v>38</v>
       </c>
       <c r="F47" t="n">
-        <v>73</v>
+        <v>82962.17905727999</v>
       </c>
       <c r="G47" t="n">
-        <v>39.06333333333334</v>
+        <v>39.09333333333334</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>38</v>
+        <v>37.3</v>
       </c>
       <c r="C48" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="D48" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="E48" t="n">
-        <v>37.7</v>
+        <v>37.3</v>
       </c>
       <c r="F48" t="n">
-        <v>34756.57051852</v>
+        <v>73</v>
       </c>
       <c r="G48" t="n">
-        <v>39.03</v>
+        <v>39.06333333333334</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1633,7 +1779,7 @@
         <v>38</v>
       </c>
       <c r="C49" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="D49" t="n">
         <v>38.3</v>
@@ -1642,12 +1788,15 @@
         <v>37.7</v>
       </c>
       <c r="F49" t="n">
-        <v>76655.36159320999</v>
+        <v>34756.57051852</v>
       </c>
       <c r="G49" t="n">
-        <v>38.99833333333333</v>
+        <v>39.03</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="C50" t="n">
-        <v>38.8</v>
+        <v>38</v>
       </c>
       <c r="D50" t="n">
-        <v>38.8</v>
+        <v>38.3</v>
       </c>
       <c r="E50" t="n">
         <v>37.7</v>
       </c>
       <c r="F50" t="n">
-        <v>170139.4495709</v>
+        <v>76655.36159320999</v>
       </c>
       <c r="G50" t="n">
-        <v>38.97833333333334</v>
+        <v>38.99833333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>38.9</v>
+        <v>37.7</v>
       </c>
       <c r="C51" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="D51" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="E51" t="n">
-        <v>38.8</v>
+        <v>37.7</v>
       </c>
       <c r="F51" t="n">
-        <v>56778.5026378</v>
+        <v>170139.4495709</v>
       </c>
       <c r="G51" t="n">
-        <v>38.99166666666667</v>
+        <v>38.97833333333334</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>38.5</v>
+        <v>38.9</v>
       </c>
       <c r="C52" t="n">
-        <v>38.3</v>
+        <v>39.1</v>
       </c>
       <c r="D52" t="n">
-        <v>38.6</v>
+        <v>39.1</v>
       </c>
       <c r="E52" t="n">
-        <v>38.3</v>
+        <v>38.8</v>
       </c>
       <c r="F52" t="n">
-        <v>1225.4434</v>
+        <v>56778.5026378</v>
       </c>
       <c r="G52" t="n">
-        <v>38.99333333333334</v>
+        <v>38.99166666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="C53" t="n">
-        <v>38.9</v>
+        <v>38.3</v>
       </c>
       <c r="D53" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="E53" t="n">
-        <v>38.8</v>
+        <v>38.3</v>
       </c>
       <c r="F53" t="n">
-        <v>20953.24191979</v>
+        <v>1225.4434</v>
       </c>
       <c r="G53" t="n">
-        <v>38.97666666666667</v>
+        <v>38.99333333333334</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,7 +1921,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="C54" t="n">
         <v>38.9</v>
@@ -1769,15 +1930,18 @@
         <v>38.9</v>
       </c>
       <c r="E54" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="F54" t="n">
-        <v>55</v>
+        <v>20953.24191979</v>
       </c>
       <c r="G54" t="n">
-        <v>38.96500000000001</v>
+        <v>38.97666666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>38.5</v>
+        <v>38.9</v>
       </c>
       <c r="C55" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="D55" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="E55" t="n">
-        <v>38.4</v>
+        <v>38.9</v>
       </c>
       <c r="F55" t="n">
-        <v>79712.44215488</v>
+        <v>55</v>
       </c>
       <c r="G55" t="n">
-        <v>38.95666666666668</v>
+        <v>38.96500000000001</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="C56" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="D56" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="E56" t="n">
-        <v>39</v>
+        <v>38.4</v>
       </c>
       <c r="F56" t="n">
-        <v>30</v>
+        <v>79712.44215488</v>
       </c>
       <c r="G56" t="n">
-        <v>38.95333333333335</v>
+        <v>38.95666666666668</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="C57" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="D57" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="E57" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="F57" t="n">
-        <v>386.6196</v>
+        <v>30</v>
       </c>
       <c r="G57" t="n">
-        <v>38.96000000000002</v>
+        <v>38.95333333333335</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>38.5</v>
       </c>
       <c r="C58" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="D58" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="E58" t="n">
         <v>38.5</v>
       </c>
       <c r="F58" t="n">
-        <v>1054.9172</v>
+        <v>386.6196</v>
       </c>
       <c r="G58" t="n">
-        <v>38.93500000000002</v>
+        <v>38.96000000000002</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="C59" t="n">
         <v>38.6</v>
       </c>
       <c r="D59" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="E59" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="F59" t="n">
-        <v>2939.3556</v>
+        <v>1054.9172</v>
       </c>
       <c r="G59" t="n">
-        <v>38.92000000000001</v>
+        <v>38.93500000000002</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="C60" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="D60" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="E60" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>2939.3556</v>
       </c>
       <c r="G60" t="n">
-        <v>38.90166666666668</v>
+        <v>38.92000000000001</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="C61" t="n">
         <v>38.5</v>
       </c>
       <c r="D61" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="E61" t="n">
         <v>38.5</v>
       </c>
       <c r="F61" t="n">
-        <v>39780.6196</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>38.88666666666668</v>
+        <v>38.90166666666668</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C62" t="n">
         <v>38.5</v>
       </c>
-      <c r="C62" t="n">
-        <v>38.4</v>
-      </c>
       <c r="D62" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="E62" t="n">
         <v>38.5</v>
       </c>
-      <c r="E62" t="n">
-        <v>38.4</v>
-      </c>
       <c r="F62" t="n">
-        <v>36836.4827</v>
+        <v>39780.6196</v>
       </c>
       <c r="G62" t="n">
         <v>38.88666666666668</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>38</v>
+        <v>38.5</v>
       </c>
       <c r="C63" t="n">
-        <v>37.7</v>
+        <v>38.4</v>
       </c>
       <c r="D63" t="n">
-        <v>38</v>
+        <v>38.5</v>
       </c>
       <c r="E63" t="n">
-        <v>37.7</v>
+        <v>38.4</v>
       </c>
       <c r="F63" t="n">
-        <v>34214.284</v>
+        <v>36836.4827</v>
       </c>
       <c r="G63" t="n">
-        <v>38.87666666666667</v>
+        <v>38.88666666666668</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="C64" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="D64" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="E64" t="n">
-        <v>36.3</v>
+        <v>37.7</v>
       </c>
       <c r="F64" t="n">
-        <v>200346.52829761</v>
+        <v>34214.284</v>
       </c>
       <c r="G64" t="n">
-        <v>38.84166666666668</v>
+        <v>38.87666666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="C65" t="n">
-        <v>38.6</v>
+        <v>37.9</v>
       </c>
       <c r="D65" t="n">
-        <v>38.6</v>
+        <v>37.9</v>
       </c>
       <c r="E65" t="n">
-        <v>37.1</v>
+        <v>36.3</v>
       </c>
       <c r="F65" t="n">
-        <v>275112.02764118</v>
+        <v>200346.52829761</v>
       </c>
       <c r="G65" t="n">
-        <v>38.82000000000001</v>
+        <v>38.84166666666668</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>37.2</v>
+        <v>37.5</v>
       </c>
       <c r="C66" t="n">
-        <v>37.4</v>
+        <v>38.6</v>
       </c>
       <c r="D66" t="n">
-        <v>37.4</v>
+        <v>38.6</v>
       </c>
       <c r="E66" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="F66" t="n">
-        <v>20</v>
+        <v>275112.02764118</v>
       </c>
       <c r="G66" t="n">
-        <v>38.81166666666667</v>
+        <v>38.82000000000001</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>38.2</v>
+        <v>37.2</v>
       </c>
       <c r="C67" t="n">
         <v>37.4</v>
       </c>
       <c r="D67" t="n">
-        <v>38.2</v>
+        <v>37.4</v>
       </c>
       <c r="E67" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="F67" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>38.79333333333334</v>
+        <v>38.81166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>37.3</v>
+        <v>38.2</v>
       </c>
       <c r="C68" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="D68" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="E68" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="F68" t="n">
-        <v>4102.2917</v>
+        <v>21</v>
       </c>
       <c r="G68" t="n">
-        <v>38.75166666666667</v>
+        <v>38.79333333333334</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>37.8</v>
+        <v>37.3</v>
       </c>
       <c r="C69" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="D69" t="n">
-        <v>37.8</v>
+        <v>38.1</v>
       </c>
       <c r="E69" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="F69" t="n">
-        <v>20</v>
+        <v>4102.2917</v>
       </c>
       <c r="G69" t="n">
-        <v>38.69666666666668</v>
+        <v>38.75166666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,10 +2385,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C70" t="n">
         <v>37.4</v>
-      </c>
-      <c r="C70" t="n">
-        <v>37.8</v>
       </c>
       <c r="D70" t="n">
         <v>37.8</v>
@@ -2188,12 +2397,15 @@
         <v>37.4</v>
       </c>
       <c r="F70" t="n">
-        <v>28913.9658</v>
+        <v>20</v>
       </c>
       <c r="G70" t="n">
-        <v>38.63833333333334</v>
+        <v>38.69666666666668</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C71" t="n">
         <v>37.8</v>
       </c>
-      <c r="C71" t="n">
-        <v>37.3</v>
-      </c>
       <c r="D71" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="E71" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="F71" t="n">
-        <v>52010.1663</v>
+        <v>28913.9658</v>
       </c>
       <c r="G71" t="n">
-        <v>38.56833333333335</v>
+        <v>38.63833333333334</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>37.4</v>
+        <v>37.8</v>
       </c>
       <c r="C72" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="D72" t="n">
-        <v>37.4</v>
+        <v>37.9</v>
       </c>
       <c r="E72" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="F72" t="n">
-        <v>44</v>
+        <v>52010.1663</v>
       </c>
       <c r="G72" t="n">
-        <v>38.50833333333335</v>
+        <v>38.56833333333335</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="C73" t="n">
-        <v>38</v>
+        <v>37.4</v>
       </c>
       <c r="D73" t="n">
-        <v>38.2</v>
+        <v>37.4</v>
       </c>
       <c r="E73" t="n">
         <v>37.4</v>
       </c>
       <c r="F73" t="n">
-        <v>199341.12668166</v>
+        <v>44</v>
       </c>
       <c r="G73" t="n">
-        <v>38.46500000000002</v>
+        <v>38.50833333333335</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="C74" t="n">
-        <v>37.4</v>
+        <v>38</v>
       </c>
       <c r="D74" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="E74" t="n">
         <v>37.4</v>
       </c>
       <c r="F74" t="n">
-        <v>1082.52631578</v>
+        <v>199341.12668166</v>
       </c>
       <c r="G74" t="n">
-        <v>38.39833333333335</v>
+        <v>38.46500000000002</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="C75" t="n">
         <v>37.4</v>
       </c>
       <c r="D75" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="E75" t="n">
         <v>37.4</v>
       </c>
       <c r="F75" t="n">
-        <v>2005.4881</v>
+        <v>1082.52631578</v>
       </c>
       <c r="G75" t="n">
-        <v>38.33333333333335</v>
+        <v>38.39833333333335</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="C76" t="n">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="D76" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="E76" t="n">
-        <v>37.7</v>
+        <v>37.4</v>
       </c>
       <c r="F76" t="n">
-        <v>16571.59226931</v>
+        <v>2005.4881</v>
       </c>
       <c r="G76" t="n">
-        <v>38.29500000000002</v>
+        <v>38.33333333333335</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C77" t="n">
         <v>37.8</v>
       </c>
-      <c r="C77" t="n">
-        <v>38.3</v>
-      </c>
       <c r="D77" t="n">
-        <v>38.3</v>
+        <v>37.8</v>
       </c>
       <c r="E77" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="F77" t="n">
-        <v>98793.33222916001</v>
+        <v>16571.59226931</v>
       </c>
       <c r="G77" t="n">
-        <v>38.28333333333335</v>
+        <v>38.29500000000002</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="C78" t="n">
-        <v>37.6</v>
+        <v>38.3</v>
       </c>
       <c r="D78" t="n">
-        <v>37.6</v>
+        <v>38.3</v>
       </c>
       <c r="E78" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>98793.33222916001</v>
       </c>
       <c r="G78" t="n">
-        <v>38.26500000000002</v>
+        <v>38.28333333333335</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="C79" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="D79" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="E79" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="F79" t="n">
-        <v>2274.6842</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>38.23166666666669</v>
+        <v>38.26500000000002</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="C80" t="n">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
         <v>38</v>
       </c>
       <c r="E80" t="n">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="F80" t="n">
-        <v>33020</v>
+        <v>2274.6842</v>
       </c>
       <c r="G80" t="n">
-        <v>38.18166666666669</v>
+        <v>38.23166666666669</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="C81" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="D81" t="n">
         <v>38</v>
       </c>
       <c r="E81" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="F81" t="n">
-        <v>6758.9026</v>
+        <v>33020</v>
       </c>
       <c r="G81" t="n">
-        <v>38.18500000000002</v>
+        <v>38.18166666666669</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="C82" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="D82" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="E82" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="F82" t="n">
-        <v>15780.7472</v>
+        <v>6758.9026</v>
       </c>
       <c r="G82" t="n">
-        <v>38.17000000000002</v>
+        <v>38.18500000000002</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="C83" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="D83" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="E83" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="F83" t="n">
-        <v>2814.3775</v>
+        <v>15780.7472</v>
       </c>
       <c r="G83" t="n">
-        <v>38.14166666666669</v>
+        <v>38.17000000000002</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="C84" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="D84" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="E84" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>2814.3775</v>
       </c>
       <c r="G84" t="n">
-        <v>38.10166666666669</v>
+        <v>38.14166666666669</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="C85" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="D85" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="E85" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="F85" t="n">
         <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>38.07166666666669</v>
+        <v>38.10166666666669</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="C86" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="D86" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="E86" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="F86" t="n">
-        <v>21215.9723</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>38.06833333333336</v>
+        <v>38.07166666666669</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,7 +2878,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="C87" t="n">
         <v>38.1</v>
@@ -2627,15 +2887,18 @@
         <v>38.1</v>
       </c>
       <c r="E87" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="F87" t="n">
-        <v>10360.4305</v>
+        <v>21215.9723</v>
       </c>
       <c r="G87" t="n">
-        <v>38.03833333333335</v>
+        <v>38.06833333333336</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="C88" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="D88" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="E88" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="F88" t="n">
-        <v>1531.6493</v>
+        <v>10360.4305</v>
       </c>
       <c r="G88" t="n">
-        <v>38.01666666666669</v>
+        <v>38.03833333333335</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="C89" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="D89" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="E89" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="F89" t="n">
-        <v>683.5195</v>
+        <v>1531.6493</v>
       </c>
       <c r="G89" t="n">
-        <v>38.01166666666668</v>
+        <v>38.01666666666669</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>38</v>
       </c>
       <c r="C90" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="D90" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="E90" t="n">
         <v>38</v>
       </c>
       <c r="F90" t="n">
-        <v>4453.1519</v>
+        <v>683.5195</v>
       </c>
       <c r="G90" t="n">
-        <v>37.99833333333336</v>
+        <v>38.01166666666668</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2725,21 +2997,24 @@
         <v>38</v>
       </c>
       <c r="C91" t="n">
-        <v>38</v>
+        <v>38.3</v>
       </c>
       <c r="D91" t="n">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="E91" t="n">
         <v>38</v>
       </c>
       <c r="F91" t="n">
-        <v>1249.4928</v>
+        <v>4453.1519</v>
       </c>
       <c r="G91" t="n">
-        <v>37.98333333333336</v>
+        <v>37.99833333333336</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="C92" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="D92" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="E92" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="F92" t="n">
-        <v>38373.3854</v>
+        <v>1249.4928</v>
       </c>
       <c r="G92" t="n">
-        <v>37.99833333333336</v>
+        <v>37.98333333333336</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2780,18 +3058,21 @@
         <v>38.4</v>
       </c>
       <c r="D93" t="n">
-        <v>38.7</v>
+        <v>38.4</v>
       </c>
       <c r="E93" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="F93" t="n">
-        <v>16744.63748062</v>
+        <v>38373.3854</v>
       </c>
       <c r="G93" t="n">
-        <v>38.00666666666669</v>
+        <v>37.99833333333336</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2806,18 +3087,21 @@
         <v>38.4</v>
       </c>
       <c r="D94" t="n">
-        <v>38.4</v>
+        <v>38.7</v>
       </c>
       <c r="E94" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="F94" t="n">
-        <v>19799.622</v>
+        <v>16744.63748062</v>
       </c>
       <c r="G94" t="n">
-        <v>38.02833333333336</v>
+        <v>38.00666666666669</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="C95" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="D95" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="E95" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="F95" t="n">
-        <v>25961.6187</v>
+        <v>19799.622</v>
       </c>
       <c r="G95" t="n">
-        <v>38.05833333333337</v>
+        <v>38.02833333333336</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C96" t="n">
         <v>38.3</v>
       </c>
-      <c r="C96" t="n">
-        <v>38.7</v>
-      </c>
       <c r="D96" t="n">
-        <v>38.7</v>
+        <v>38.3</v>
       </c>
       <c r="E96" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="F96" t="n">
-        <v>26565.13865865</v>
+        <v>25961.6187</v>
       </c>
       <c r="G96" t="n">
-        <v>38.08666666666669</v>
+        <v>38.05833333333337</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="C97" t="n">
         <v>38.7</v>
       </c>
-      <c r="C97" t="n">
-        <v>38.6</v>
-      </c>
       <c r="D97" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="E97" t="n">
-        <v>38.6</v>
+        <v>38.3</v>
       </c>
       <c r="F97" t="n">
-        <v>90373.51304135</v>
+        <v>26565.13865865</v>
       </c>
       <c r="G97" t="n">
-        <v>38.12666666666669</v>
+        <v>38.08666666666669</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>39</v>
+        <v>38.7</v>
       </c>
       <c r="C98" t="n">
-        <v>39</v>
+        <v>38.6</v>
       </c>
       <c r="D98" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="E98" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="F98" t="n">
-        <v>6665.5945</v>
+        <v>90373.51304135</v>
       </c>
       <c r="G98" t="n">
-        <v>38.13666666666669</v>
+        <v>38.12666666666669</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,21 +3229,24 @@
         <v>39</v>
       </c>
       <c r="C99" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="D99" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="E99" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="F99" t="n">
-        <v>65470.74883455</v>
+        <v>6665.5945</v>
       </c>
       <c r="G99" t="n">
-        <v>38.15166666666669</v>
+        <v>38.13666666666669</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="C100" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="D100" t="n">
         <v>39.3</v>
       </c>
       <c r="E100" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="F100" t="n">
-        <v>605.5724244199999</v>
+        <v>65470.74883455</v>
       </c>
       <c r="G100" t="n">
-        <v>38.16833333333336</v>
+        <v>38.15166666666669</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="C101" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="D101" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="E101" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="F101" t="n">
-        <v>28379.8578</v>
+        <v>605.5724244199999</v>
       </c>
       <c r="G101" t="n">
-        <v>38.18000000000004</v>
+        <v>38.16833333333336</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="C102" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="D102" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="E102" t="n">
-        <v>39.3</v>
+        <v>38.8</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>28379.8578</v>
       </c>
       <c r="G102" t="n">
-        <v>38.20333333333337</v>
+        <v>38.18000000000004</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="C103" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="D103" t="n">
         <v>39.3</v>
       </c>
       <c r="E103" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="F103" t="n">
-        <v>205583.7608</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>38.21833333333337</v>
+        <v>38.20333333333337</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="C104" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="D104" t="n">
         <v>39.3</v>
       </c>
       <c r="E104" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="F104" t="n">
-        <v>24730.9669</v>
+        <v>205583.7608</v>
       </c>
       <c r="G104" t="n">
-        <v>38.23500000000003</v>
+        <v>38.21833333333337</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>39.3</v>
       </c>
       <c r="F105" t="n">
-        <v>21552.6463</v>
+        <v>24730.9669</v>
       </c>
       <c r="G105" t="n">
-        <v>38.26833333333337</v>
+        <v>38.23500000000003</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>39.3</v>
       </c>
       <c r="C106" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="D106" t="n">
         <v>39.3</v>
       </c>
       <c r="E106" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="F106" t="n">
-        <v>69787.13340000001</v>
+        <v>21552.6463</v>
       </c>
       <c r="G106" t="n">
-        <v>38.27500000000004</v>
+        <v>38.26833333333337</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="C107" t="n">
         <v>38.8</v>
       </c>
       <c r="D107" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="E107" t="n">
         <v>38.8</v>
       </c>
       <c r="F107" t="n">
-        <v>677.3587</v>
+        <v>69787.13340000001</v>
       </c>
       <c r="G107" t="n">
-        <v>38.28833333333338</v>
+        <v>38.27500000000004</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>38.8</v>
       </c>
       <c r="F108" t="n">
-        <v>96.0668</v>
+        <v>677.3587</v>
       </c>
       <c r="G108" t="n">
-        <v>38.30666666666671</v>
+        <v>38.28833333333338</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,7 +3516,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="C109" t="n">
         <v>38.8</v>
@@ -3199,15 +3525,18 @@
         <v>38.8</v>
       </c>
       <c r="E109" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="F109" t="n">
-        <v>9029.933199999999</v>
+        <v>96.0668</v>
       </c>
       <c r="G109" t="n">
-        <v>38.32000000000005</v>
+        <v>38.30666666666671</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>38.7</v>
       </c>
       <c r="F110" t="n">
-        <v>4428.4241</v>
+        <v>9029.933199999999</v>
       </c>
       <c r="G110" t="n">
         <v>38.32000000000005</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="C111" t="n">
         <v>38.8</v>
       </c>
       <c r="D111" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="E111" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="F111" t="n">
-        <v>42638.94594241</v>
+        <v>4428.4241</v>
       </c>
       <c r="G111" t="n">
-        <v>38.31500000000005</v>
+        <v>38.32000000000005</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="C112" t="n">
         <v>38.8</v>
       </c>
       <c r="D112" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="E112" t="n">
         <v>38.8</v>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>42638.94594241</v>
       </c>
       <c r="G112" t="n">
-        <v>38.32333333333339</v>
+        <v>38.31500000000005</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3297,21 +3635,24 @@
         <v>38.8</v>
       </c>
       <c r="C113" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="D113" t="n">
         <v>38.8</v>
       </c>
       <c r="E113" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="F113" t="n">
-        <v>5946.6374</v>
+        <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>38.32000000000005</v>
+        <v>38.32333333333339</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="C114" t="n">
         <v>38.7</v>
       </c>
       <c r="D114" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="E114" t="n">
         <v>38.7</v>
       </c>
       <c r="F114" t="n">
-        <v>843.4366</v>
+        <v>5946.6374</v>
       </c>
       <c r="G114" t="n">
-        <v>38.31666666666671</v>
+        <v>38.32000000000005</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>38.7</v>
       </c>
       <c r="F115" t="n">
-        <v>2583.97932816</v>
+        <v>843.4366</v>
       </c>
       <c r="G115" t="n">
-        <v>38.31000000000004</v>
+        <v>38.31666666666671</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>38.7</v>
       </c>
       <c r="F116" t="n">
-        <v>83832.96567183999</v>
+        <v>2583.97932816</v>
       </c>
       <c r="G116" t="n">
-        <v>38.30500000000004</v>
+        <v>38.31000000000004</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="C117" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="D117" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="E117" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>83832.96567183999</v>
       </c>
       <c r="G117" t="n">
-        <v>38.31000000000004</v>
+        <v>38.30500000000004</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="C118" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="D118" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="E118" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="F118" t="n">
-        <v>21275.8626</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>38.30833333333338</v>
+        <v>38.31000000000004</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="C119" t="n">
         <v>38.5</v>
       </c>
       <c r="D119" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="E119" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="F119" t="n">
-        <v>85700.1197</v>
+        <v>21275.8626</v>
       </c>
       <c r="G119" t="n">
-        <v>38.30666666666671</v>
+        <v>38.30833333333338</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="C120" t="n">
         <v>38.5</v>
       </c>
       <c r="D120" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="E120" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="F120" t="n">
-        <v>259.948</v>
+        <v>85700.1197</v>
       </c>
       <c r="G120" t="n">
         <v>38.30666666666671</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="C121" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="D121" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="E121" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="F121" t="n">
-        <v>844.544</v>
+        <v>259.948</v>
       </c>
       <c r="G121" t="n">
-        <v>38.30500000000005</v>
+        <v>38.30666666666671</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3531,21 +3896,24 @@
         <v>38.4</v>
       </c>
       <c r="C122" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="D122" t="n">
-        <v>38.8</v>
+        <v>38.4</v>
       </c>
       <c r="E122" t="n">
         <v>38.4</v>
       </c>
       <c r="F122" t="n">
-        <v>11114.1474</v>
+        <v>844.544</v>
       </c>
       <c r="G122" t="n">
-        <v>38.30833333333338</v>
+        <v>38.30500000000005</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>38.8</v>
+        <v>38.4</v>
       </c>
       <c r="C123" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="D123" t="n">
         <v>38.8</v>
       </c>
       <c r="E123" t="n">
-        <v>38.8</v>
+        <v>38.4</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>11114.1474</v>
       </c>
       <c r="G123" t="n">
-        <v>38.32666666666672</v>
+        <v>38.30833333333338</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>38.8</v>
       </c>
       <c r="F124" t="n">
-        <v>37483.9358</v>
+        <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>38.34166666666672</v>
+        <v>38.32666666666672</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="C125" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="D125" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="E125" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="F125" t="n">
-        <v>29392.5128</v>
+        <v>37483.9358</v>
       </c>
       <c r="G125" t="n">
-        <v>38.34833333333339</v>
+        <v>38.34166666666672</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="C126" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="D126" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="E126" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="F126" t="n">
-        <v>800</v>
+        <v>29392.5128</v>
       </c>
       <c r="G126" t="n">
-        <v>38.37166666666672</v>
+        <v>38.34833333333339</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="C127" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="D127" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="E127" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G127" t="n">
-        <v>38.39666666666673</v>
+        <v>38.37166666666672</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="C128" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="D128" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="E128" t="n">
-        <v>38.6</v>
+        <v>38.9</v>
       </c>
       <c r="F128" t="n">
-        <v>2789.0941</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>38.41666666666673</v>
+        <v>38.39666666666673</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>38.2</v>
+        <v>38.7</v>
       </c>
       <c r="C129" t="n">
-        <v>37.8</v>
+        <v>38.8</v>
       </c>
       <c r="D129" t="n">
-        <v>38.2</v>
+        <v>38.8</v>
       </c>
       <c r="E129" t="n">
-        <v>37.8</v>
+        <v>38.6</v>
       </c>
       <c r="F129" t="n">
-        <v>112151.7203</v>
+        <v>2789.0941</v>
       </c>
       <c r="G129" t="n">
-        <v>38.4233333333334</v>
+        <v>38.41666666666673</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="C130" t="n">
-        <v>38.4</v>
+        <v>37.8</v>
       </c>
       <c r="D130" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="E130" t="n">
-        <v>38.4</v>
+        <v>37.8</v>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>112151.7203</v>
       </c>
       <c r="G130" t="n">
-        <v>38.43333333333339</v>
+        <v>38.4233333333334</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="C131" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="D131" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="E131" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="F131" t="n">
-        <v>6824.0641</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>38.44833333333339</v>
+        <v>38.43333333333339</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>38.2</v>
       </c>
       <c r="F132" t="n">
-        <v>1300.8049</v>
+        <v>6824.0641</v>
       </c>
       <c r="G132" t="n">
-        <v>38.46166666666672</v>
+        <v>38.44833333333339</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="C133" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="D133" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="E133" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="F133" t="n">
-        <v>21470.1298</v>
+        <v>1300.8049</v>
       </c>
       <c r="G133" t="n">
         <v>38.46166666666672</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,12 +4253,15 @@
         <v>38</v>
       </c>
       <c r="F134" t="n">
-        <v>1607.7165</v>
+        <v>21470.1298</v>
       </c>
       <c r="G134" t="n">
-        <v>38.47166666666671</v>
+        <v>38.46166666666672</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,7 +4270,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="C135" t="n">
         <v>38</v>
@@ -3875,15 +4279,18 @@
         <v>38</v>
       </c>
       <c r="E135" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="F135" t="n">
-        <v>23107.5978</v>
+        <v>1607.7165</v>
       </c>
       <c r="G135" t="n">
-        <v>38.48166666666671</v>
+        <v>38.47166666666671</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
       <c r="C136" t="n">
-        <v>37.2</v>
+        <v>38</v>
       </c>
       <c r="D136" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="E136" t="n">
-        <v>37.2</v>
+        <v>37.8</v>
       </c>
       <c r="F136" t="n">
-        <v>148472.5803</v>
+        <v>23107.5978</v>
       </c>
       <c r="G136" t="n">
-        <v>38.47166666666671</v>
+        <v>38.48166666666671</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>37.3</v>
+        <v>38.1</v>
       </c>
       <c r="C137" t="n">
         <v>37.2</v>
       </c>
       <c r="D137" t="n">
-        <v>37.3</v>
+        <v>38.1</v>
       </c>
       <c r="E137" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="F137" t="n">
-        <v>72730.16959999999</v>
+        <v>148472.5803</v>
       </c>
       <c r="G137" t="n">
-        <v>38.45333333333337</v>
+        <v>38.47166666666671</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>37.9</v>
+        <v>37.3</v>
       </c>
       <c r="C138" t="n">
-        <v>37.9</v>
+        <v>37.2</v>
       </c>
       <c r="D138" t="n">
-        <v>38</v>
+        <v>37.3</v>
       </c>
       <c r="E138" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="F138" t="n">
-        <v>47891.5064</v>
+        <v>72730.16959999999</v>
       </c>
       <c r="G138" t="n">
-        <v>38.45833333333337</v>
+        <v>38.45333333333337</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>37.4</v>
+        <v>37.9</v>
       </c>
       <c r="C139" t="n">
-        <v>37.4</v>
+        <v>37.9</v>
       </c>
       <c r="D139" t="n">
-        <v>37.4</v>
+        <v>38</v>
       </c>
       <c r="E139" t="n">
         <v>37.4</v>
       </c>
       <c r="F139" t="n">
-        <v>11179.6439</v>
+        <v>47891.5064</v>
       </c>
       <c r="G139" t="n">
-        <v>38.44833333333337</v>
+        <v>38.45833333333337</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="C140" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="D140" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="E140" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="F140" t="n">
-        <v>52232.7958</v>
+        <v>11179.6439</v>
       </c>
       <c r="G140" t="n">
-        <v>38.44333333333338</v>
+        <v>38.44833333333337</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="C141" t="n">
         <v>37.3</v>
       </c>
       <c r="D141" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="E141" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="F141" t="n">
-        <v>2131.4412</v>
+        <v>52232.7958</v>
       </c>
       <c r="G141" t="n">
-        <v>38.43166666666671</v>
+        <v>38.44333333333338</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>37.3</v>
       </c>
       <c r="F142" t="n">
-        <v>39912.4226</v>
+        <v>2131.4412</v>
       </c>
       <c r="G142" t="n">
-        <v>38.41833333333339</v>
+        <v>38.43166666666671</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>37.3</v>
       </c>
       <c r="F143" t="n">
-        <v>20017.3189</v>
+        <v>39912.4226</v>
       </c>
       <c r="G143" t="n">
-        <v>38.40666666666672</v>
+        <v>38.41833333333339</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="C144" t="n">
-        <v>36.9</v>
+        <v>37.3</v>
       </c>
       <c r="D144" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="E144" t="n">
-        <v>36.9</v>
+        <v>37.3</v>
       </c>
       <c r="F144" t="n">
-        <v>35738.3485</v>
+        <v>20017.3189</v>
       </c>
       <c r="G144" t="n">
-        <v>38.39333333333339</v>
+        <v>38.40666666666672</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>36.8</v>
+        <v>37.2</v>
       </c>
       <c r="C145" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="D145" t="n">
-        <v>36.8</v>
+        <v>37.2</v>
       </c>
       <c r="E145" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="F145" t="n">
-        <v>8096.9722</v>
+        <v>35738.3485</v>
       </c>
       <c r="G145" t="n">
-        <v>38.37166666666672</v>
+        <v>38.39333333333339</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C146" t="n">
         <v>36.6</v>
       </c>
-      <c r="C146" t="n">
-        <v>37.2</v>
-      </c>
       <c r="D146" t="n">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
       <c r="E146" t="n">
         <v>36.6</v>
       </c>
       <c r="F146" t="n">
-        <v>67.9049</v>
+        <v>8096.9722</v>
       </c>
       <c r="G146" t="n">
-        <v>38.35666666666672</v>
+        <v>38.37166666666672</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4181,21 +4621,24 @@
         <v>36.6</v>
       </c>
       <c r="C147" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="D147" t="n">
-        <v>36.6</v>
+        <v>37.2</v>
       </c>
       <c r="E147" t="n">
         <v>36.6</v>
       </c>
       <c r="F147" t="n">
-        <v>25760.2646</v>
+        <v>67.9049</v>
       </c>
       <c r="G147" t="n">
-        <v>38.33166666666672</v>
+        <v>38.35666666666672</v>
       </c>
       <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>36.6</v>
       </c>
       <c r="F148" t="n">
-        <v>26344.7727</v>
+        <v>25760.2646</v>
       </c>
       <c r="G148" t="n">
-        <v>38.31000000000005</v>
+        <v>38.33166666666672</v>
       </c>
       <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4233,21 +4679,24 @@
         <v>36.6</v>
       </c>
       <c r="C149" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="D149" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E149" t="n">
         <v>36.6</v>
       </c>
       <c r="F149" t="n">
-        <v>10228.5694</v>
+        <v>26344.7727</v>
       </c>
       <c r="G149" t="n">
-        <v>38.28833333333338</v>
+        <v>38.31000000000005</v>
       </c>
       <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,10 +4705,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C150" t="n">
         <v>36.7</v>
-      </c>
-      <c r="C150" t="n">
-        <v>36.6</v>
       </c>
       <c r="D150" t="n">
         <v>36.7</v>
@@ -4268,12 +4717,15 @@
         <v>36.6</v>
       </c>
       <c r="F150" t="n">
-        <v>59984.0839</v>
+        <v>10228.5694</v>
       </c>
       <c r="G150" t="n">
-        <v>38.26000000000004</v>
+        <v>38.28833333333338</v>
       </c>
       <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C151" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D151" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E151" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F151" t="n">
-        <v>8128.0785</v>
+        <v>59984.0839</v>
       </c>
       <c r="G151" t="n">
-        <v>38.23500000000004</v>
+        <v>38.26000000000004</v>
       </c>
       <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>36.5</v>
       </c>
       <c r="F152" t="n">
-        <v>4156.8924</v>
+        <v>8128.0785</v>
       </c>
       <c r="G152" t="n">
-        <v>38.20333333333338</v>
+        <v>38.23500000000004</v>
       </c>
       <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>37.1</v>
+        <v>36.5</v>
       </c>
       <c r="C153" t="n">
-        <v>37.1</v>
+        <v>36.5</v>
       </c>
       <c r="D153" t="n">
-        <v>37.1</v>
+        <v>36.5</v>
       </c>
       <c r="E153" t="n">
-        <v>37.1</v>
+        <v>36.5</v>
       </c>
       <c r="F153" t="n">
-        <v>45304.42044501</v>
+        <v>4156.8924</v>
       </c>
       <c r="G153" t="n">
-        <v>38.18166666666671</v>
+        <v>38.20333333333338</v>
       </c>
       <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="C154" t="n">
-        <v>38</v>
+        <v>37.1</v>
       </c>
       <c r="D154" t="n">
-        <v>38</v>
+        <v>37.1</v>
       </c>
       <c r="E154" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="F154" t="n">
-        <v>70405.05460078</v>
+        <v>45304.42044501</v>
       </c>
       <c r="G154" t="n">
-        <v>38.17500000000004</v>
+        <v>38.18166666666671</v>
       </c>
       <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>38</v>
+        <v>36.9</v>
       </c>
       <c r="C155" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="D155" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="E155" t="n">
-        <v>38</v>
+        <v>36.9</v>
       </c>
       <c r="F155" t="n">
-        <v>58413.05998771</v>
+        <v>70405.05460078</v>
       </c>
       <c r="G155" t="n">
         <v>38.17500000000004</v>
       </c>
       <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="C156" t="n">
-        <v>37.8</v>
+        <v>38.3</v>
       </c>
       <c r="D156" t="n">
-        <v>37.8</v>
+        <v>38.3</v>
       </c>
       <c r="E156" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="F156" t="n">
-        <v>261.0966</v>
+        <v>58413.05998771</v>
       </c>
       <c r="G156" t="n">
-        <v>38.16000000000005</v>
+        <v>38.17500000000004</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>37.3</v>
+        <v>37.8</v>
       </c>
       <c r="C157" t="n">
-        <v>37.1</v>
+        <v>37.8</v>
       </c>
       <c r="D157" t="n">
-        <v>37.3</v>
+        <v>37.8</v>
       </c>
       <c r="E157" t="n">
-        <v>37.1</v>
+        <v>37.8</v>
       </c>
       <c r="F157" t="n">
-        <v>14250.7354</v>
+        <v>261.0966</v>
       </c>
       <c r="G157" t="n">
-        <v>38.13500000000004</v>
+        <v>38.16000000000005</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>37.1</v>
       </c>
       <c r="F158" t="n">
-        <v>11792.5565</v>
+        <v>14250.7354</v>
       </c>
       <c r="G158" t="n">
-        <v>38.10333333333337</v>
+        <v>38.13500000000004</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>37</v>
+        <v>37.3</v>
       </c>
       <c r="C159" t="n">
-        <v>38.4</v>
+        <v>37.1</v>
       </c>
       <c r="D159" t="n">
-        <v>38.4</v>
+        <v>37.3</v>
       </c>
       <c r="E159" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="F159" t="n">
-        <v>122827.47567581</v>
+        <v>11792.5565</v>
       </c>
       <c r="G159" t="n">
-        <v>38.09166666666671</v>
+        <v>38.10333333333337</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>37</v>
+      </c>
+      <c r="C160" t="n">
         <v>38.4</v>
       </c>
-      <c r="C160" t="n">
-        <v>38.9</v>
-      </c>
       <c r="D160" t="n">
-        <v>38.9</v>
+        <v>38.4</v>
       </c>
       <c r="E160" t="n">
-        <v>38.4</v>
+        <v>37</v>
       </c>
       <c r="F160" t="n">
-        <v>80403.44894261</v>
+        <v>122827.47567581</v>
       </c>
       <c r="G160" t="n">
-        <v>38.08500000000004</v>
+        <v>38.09166666666671</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="C161" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="D161" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="E161" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="F161" t="n">
-        <v>62502.68394739</v>
+        <v>80403.44894261</v>
       </c>
       <c r="G161" t="n">
-        <v>38.08666666666671</v>
+        <v>38.08500000000004</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>38.9</v>
+        <v>38.5</v>
       </c>
       <c r="C162" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="D162" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="E162" t="n">
-        <v>37.8</v>
+        <v>38.5</v>
       </c>
       <c r="F162" t="n">
-        <v>200299.00422937</v>
+        <v>62502.68394739</v>
       </c>
       <c r="G162" t="n">
-        <v>38.08500000000004</v>
+        <v>38.08666666666671</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="C163" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="D163" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="E163" t="n">
-        <v>39</v>
+        <v>37.8</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>200299.00422937</v>
       </c>
       <c r="G163" t="n">
-        <v>38.08333333333337</v>
+        <v>38.08500000000004</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="C164" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="D164" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="E164" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="F164" t="n">
-        <v>187455.90744655</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>38.07000000000004</v>
+        <v>38.08333333333337</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>39.6</v>
+        <v>38.9</v>
       </c>
       <c r="C165" t="n">
-        <v>39.6</v>
+        <v>38.5</v>
       </c>
       <c r="D165" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="E165" t="n">
-        <v>39.5</v>
+        <v>38.5</v>
       </c>
       <c r="F165" t="n">
-        <v>2254.87039141</v>
+        <v>187455.90744655</v>
       </c>
       <c r="G165" t="n">
-        <v>38.07500000000003</v>
+        <v>38.07000000000004</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="C166" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="D166" t="n">
         <v>39.6</v>
       </c>
       <c r="E166" t="n">
-        <v>37.4</v>
+        <v>39.5</v>
       </c>
       <c r="F166" t="n">
-        <v>155984.43713535</v>
+        <v>2254.87039141</v>
       </c>
       <c r="G166" t="n">
-        <v>38.08666666666669</v>
+        <v>38.07500000000003</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C167" t="n">
         <v>39.5</v>
       </c>
-      <c r="C167" t="n">
-        <v>39.4</v>
-      </c>
       <c r="D167" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="E167" t="n">
-        <v>39.4</v>
+        <v>37.4</v>
       </c>
       <c r="F167" t="n">
-        <v>20</v>
+        <v>155984.43713535</v>
       </c>
       <c r="G167" t="n">
-        <v>38.09666666666669</v>
+        <v>38.08666666666669</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="C168" t="n">
-        <v>37.8</v>
+        <v>39.4</v>
       </c>
       <c r="D168" t="n">
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="E168" t="n">
-        <v>37.8</v>
+        <v>39.4</v>
       </c>
       <c r="F168" t="n">
-        <v>1274.6315</v>
+        <v>20</v>
       </c>
       <c r="G168" t="n">
-        <v>38.08000000000003</v>
+        <v>38.09666666666669</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>39.1</v>
+        <v>38</v>
       </c>
       <c r="C169" t="n">
-        <v>39.1</v>
+        <v>37.8</v>
       </c>
       <c r="D169" t="n">
-        <v>39.1</v>
+        <v>38</v>
       </c>
       <c r="E169" t="n">
-        <v>39.1</v>
+        <v>37.8</v>
       </c>
       <c r="F169" t="n">
-        <v>10</v>
+        <v>1274.6315</v>
       </c>
       <c r="G169" t="n">
-        <v>38.08500000000002</v>
+        <v>38.08000000000003</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,16 +5285,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
       </c>
       <c r="C170" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
       </c>
       <c r="D170" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
       </c>
       <c r="E170" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
       </c>
       <c r="F170" t="n">
         <v>10</v>
@@ -4794,6 +5303,9 @@
         <v>38.08500000000002</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>37.9</v>
+        <v>38.8</v>
       </c>
       <c r="C171" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="D171" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="E171" t="n">
-        <v>37.8</v>
+        <v>38.8</v>
       </c>
       <c r="F171" t="n">
-        <v>3853.6156</v>
+        <v>10</v>
       </c>
       <c r="G171" t="n">
-        <v>38.08333333333335</v>
+        <v>38.08500000000002</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>38.6</v>
+        <v>37.9</v>
       </c>
       <c r="C172" t="n">
-        <v>39.3</v>
+        <v>38.7</v>
       </c>
       <c r="D172" t="n">
-        <v>39.3</v>
+        <v>38.7</v>
       </c>
       <c r="E172" t="n">
-        <v>38.6</v>
+        <v>37.8</v>
       </c>
       <c r="F172" t="n">
-        <v>199602.80645493</v>
+        <v>3853.6156</v>
       </c>
       <c r="G172" t="n">
-        <v>38.09166666666668</v>
+        <v>38.08333333333335</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C173" t="n">
         <v>39.3</v>
-      </c>
-      <c r="C173" t="n">
-        <v>38.9</v>
       </c>
       <c r="D173" t="n">
         <v>39.3</v>
       </c>
       <c r="E173" t="n">
-        <v>37.9</v>
+        <v>38.6</v>
       </c>
       <c r="F173" t="n">
-        <v>238294.4746</v>
+        <v>199602.80645493</v>
       </c>
       <c r="G173" t="n">
-        <v>38.09500000000002</v>
+        <v>38.09166666666668</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>38.4</v>
+        <v>39.3</v>
       </c>
       <c r="C174" t="n">
-        <v>38.4</v>
+        <v>38.9</v>
       </c>
       <c r="D174" t="n">
-        <v>38.4</v>
+        <v>39.3</v>
       </c>
       <c r="E174" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="F174" t="n">
-        <v>90939.4375</v>
+        <v>238294.4746</v>
       </c>
       <c r="G174" t="n">
-        <v>38.09000000000002</v>
+        <v>38.09500000000002</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="C175" t="n">
-        <v>39.3</v>
+        <v>38.4</v>
       </c>
       <c r="D175" t="n">
-        <v>39.3</v>
+        <v>38.4</v>
       </c>
       <c r="E175" t="n">
-        <v>36.7</v>
+        <v>37.8</v>
       </c>
       <c r="F175" t="n">
-        <v>217783.27572762</v>
+        <v>90939.4375</v>
       </c>
       <c r="G175" t="n">
-        <v>38.10000000000003</v>
+        <v>38.09000000000002</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>37.8</v>
+        <v>38.3</v>
       </c>
       <c r="C176" t="n">
-        <v>37.8</v>
+        <v>39.3</v>
       </c>
       <c r="D176" t="n">
-        <v>37.8</v>
+        <v>39.3</v>
       </c>
       <c r="E176" t="n">
-        <v>37.8</v>
+        <v>36.7</v>
       </c>
       <c r="F176" t="n">
-        <v>584.2592</v>
+        <v>217783.27572762</v>
       </c>
       <c r="G176" t="n">
-        <v>38.08500000000004</v>
+        <v>38.10000000000003</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,12 +5500,15 @@
         <v>37.8</v>
       </c>
       <c r="F177" t="n">
-        <v>71889.2328</v>
+        <v>584.2592</v>
       </c>
       <c r="G177" t="n">
-        <v>38.06833333333337</v>
+        <v>38.08500000000004</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,544 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>39</v>
+        <v>37.8</v>
       </c>
       <c r="C178" t="n">
-        <v>37.3</v>
+        <v>37.8</v>
       </c>
       <c r="D178" t="n">
-        <v>39.2</v>
+        <v>37.8</v>
       </c>
       <c r="E178" t="n">
-        <v>37.2</v>
+        <v>37.8</v>
       </c>
       <c r="F178" t="n">
-        <v>198575.2638254</v>
+        <v>71889.2328</v>
       </c>
       <c r="G178" t="n">
-        <v>38.04833333333337</v>
+        <v>38.06833333333337</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="C179" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D179" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="E179" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="F179" t="n">
-        <v>159554.37617142</v>
-      </c>
-      <c r="G179" t="n">
-        <v>38.06000000000004</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="C180" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="D180" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="E180" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="F180" t="n">
-        <v>4946.9341</v>
-      </c>
-      <c r="G180" t="n">
-        <v>38.05333333333337</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="C181" t="n">
-        <v>38</v>
-      </c>
-      <c r="D181" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="E181" t="n">
-        <v>38</v>
-      </c>
-      <c r="F181" t="n">
-        <v>26240.5696</v>
-      </c>
-      <c r="G181" t="n">
-        <v>38.0466666666667</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="C182" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="D182" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="E182" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="F182" t="n">
-        <v>63461.70568333</v>
-      </c>
-      <c r="G182" t="n">
-        <v>38.04333333333337</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C183" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="D183" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="E183" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F183" t="n">
-        <v>46594.3563</v>
-      </c>
-      <c r="G183" t="n">
-        <v>38.0366666666667</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="C184" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="D184" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="E184" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="F184" t="n">
-        <v>57925.03498723</v>
-      </c>
-      <c r="G184" t="n">
-        <v>38.0416666666667</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>38</v>
-      </c>
-      <c r="C185" t="n">
-        <v>38</v>
-      </c>
-      <c r="D185" t="n">
-        <v>38</v>
-      </c>
-      <c r="E185" t="n">
-        <v>38</v>
-      </c>
-      <c r="F185" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>38.02500000000003</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C186" t="n">
-        <v>37</v>
-      </c>
-      <c r="D186" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="E186" t="n">
-        <v>37</v>
-      </c>
-      <c r="F186" t="n">
-        <v>111616.5678</v>
-      </c>
-      <c r="G186" t="n">
-        <v>37.99500000000003</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="C187" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D187" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="E187" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="F187" t="n">
-        <v>112191.2267</v>
-      </c>
-      <c r="G187" t="n">
-        <v>37.95833333333336</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="C188" t="n">
-        <v>38</v>
-      </c>
-      <c r="D188" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="E188" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="F188" t="n">
-        <v>26501.0807</v>
-      </c>
-      <c r="G188" t="n">
-        <v>37.94500000000002</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>37</v>
-      </c>
-      <c r="C189" t="n">
-        <v>37</v>
-      </c>
-      <c r="D189" t="n">
-        <v>37</v>
-      </c>
-      <c r="E189" t="n">
-        <v>37</v>
-      </c>
-      <c r="F189" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G189" t="n">
-        <v>37.93166666666669</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="C190" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="D190" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="E190" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="F190" t="n">
-        <v>306957.1982</v>
-      </c>
-      <c r="G190" t="n">
-        <v>37.88166666666668</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C191" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D191" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E191" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2305.8909</v>
-      </c>
-      <c r="G191" t="n">
-        <v>37.87500000000002</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C192" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D192" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E192" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F192" t="n">
-        <v>15582.8023</v>
-      </c>
-      <c r="G192" t="n">
-        <v>37.85000000000002</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C193" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D193" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E193" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F193" t="n">
-        <v>181.7299</v>
-      </c>
-      <c r="G193" t="n">
-        <v>37.82500000000002</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="C194" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D194" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E194" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F194" t="n">
-        <v>27876.0235</v>
-      </c>
-      <c r="G194" t="n">
-        <v>37.80000000000003</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C195" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="D195" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E195" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="F195" t="n">
-        <v>267432.33750732</v>
-      </c>
-      <c r="G195" t="n">
-        <v>37.76000000000002</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C196" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D196" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E196" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F196" t="n">
-        <v>11986.91451007</v>
-      </c>
-      <c r="G196" t="n">
-        <v>37.77000000000002</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C197" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="D197" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="E197" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F197" t="n">
-        <v>65396.3293</v>
-      </c>
-      <c r="G197" t="n">
-        <v>37.78500000000003</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>38</v>
-      </c>
-      <c r="C198" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="D198" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="E198" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="F198" t="n">
-        <v>39079.34135484</v>
-      </c>
-      <c r="G198" t="n">
-        <v>37.78833333333336</v>
-      </c>
-      <c r="H198" t="n">
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
